--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/26_Diyarbakır_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/26_Diyarbakır_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C513EB43-3C02-488A-AC7F-1D3260A0CA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78A06E29-2AB9-43D2-9DFD-C6A2B9C0CFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="669" xr2:uid="{7FC49CB6-A3E7-4991-A8CE-7B86C9444961}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{398E701B-1189-4156-BB06-F21DCC347B61}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -968,13 +968,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{080F80A1-9FB5-4101-9362-FEA03485E6E3}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{CF0805A9-B6BB-4E5D-BC75-F93ADF0A377E}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{217EA90A-8AEF-4193-8647-D812D65B3CF2}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{B186CCCB-1AA9-4643-9560-3ECDB1EE5A71}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{3FB12432-AC29-49C6-BE2D-238B74FA405D}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{B131BBD3-43C1-4D41-9618-77DADA0D0F93}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{5511890B-410F-4041-8DD6-D95C5F200928}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{9D47C927-D8C4-45EF-BF45-095D5EB335B9}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{D0AC75F5-87AB-477D-93ED-29F45DF9DF22}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{5DF44A6B-53EB-47E8-998D-A7FF9B76FF37}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{AB90A49E-45D4-4684-8245-DAF1E1BD0D4B}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{A97FEC1F-6571-445E-9D7B-2C12E44448E2}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{139AE2DE-7710-414B-AD43-1682939B053A}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{22C818D6-22C1-4A73-9E2E-5C9E28763227}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1344,7 +1344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3398984E-61B4-47FF-9CAB-7D951A5420B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7C5B40-F799-4E44-B91E-7B1BCAAE12BB}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2634,17 +2634,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7B02D5F9-B9B0-4003-BD49-A4FF06AB7704}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{88159F3F-7DE0-4FB7-BB34-D1F31EE51133}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E26E1D26-F2FF-4124-9779-338DEB6D2EE7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5587ECE2-A8B4-492F-83C7-7F425AF8C488}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{30F17D1A-AA9D-4BE5-A9DD-FB4B62EE49E3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{59D883D9-29E0-4168-AFE7-3BFD4094ED16}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DE4A9E37-FEA4-4A6E-AEDE-5B098C1E3D46}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A6E718B5-A477-4266-BFD0-1BB66F509C66}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8104F2C4-E4AD-45BA-84C0-E08A7F4DF8EB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D56FFCBF-770E-4B85-B19C-1FCAF92FCA1A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{31493E5E-54C9-4D1F-BB82-8C52D292CA32}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A1B46FC7-D457-402D-ADB2-F8816A2761C2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{51A11928-9440-401A-A0AF-AC36A9AEEC79}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7D1C1B77-3722-4434-8DD1-81894C65A829}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{60752167-2080-47F0-A4B8-349F50E0C201}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3BB83BD6-59D1-4006-8A79-1F293B604CC5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{72B32BAF-749C-4B97-A247-528F41B3A340}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BF5EC39F-22F0-49E5-95BB-04B86D559B7D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9BC792BA-9586-4F53-B6A1-669391FF4E0A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DAB42AE1-BD09-422C-8DDC-5386EA159FCA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9725E53A-C1AE-46B1-ACBF-AD96DD6CA34F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EBC39B9C-59DB-456D-AC14-B8C7581A294F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2657,7 +2657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32731C13-55FB-4A18-801D-549C3C00575C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5EC11C-1074-4C29-9043-E1C341FE9CD8}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -3925,17 +3925,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{460A8DF3-93F2-44F8-B3C1-6E401FF6249B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C756244F-818D-4B1D-A3A7-0DA1B276B32F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{87F87F5B-93ED-4D2A-89E9-04A30DBE6DD0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9169A287-A6CF-47E9-898E-E527592AD691}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6198FDB6-A1A1-42EC-81B4-AFAAB1F110AE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0EE4E3C6-2310-4345-BAD3-BF1890556855}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{06028D3D-20E5-4CFF-9326-98425FBAFB99}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EEA2AA18-D985-43CA-ABD1-8C466A74C121}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9669CF7F-4640-42AE-BA99-B93B72F45425}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{CDB57229-236E-4C09-BA7E-CD6C4F1189F1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2C9F0323-A286-4004-A6A1-59DE68161A0E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B5201E38-9132-4475-A802-6AF7D109DBC4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{659ED054-718B-46C4-A884-C4BF0BFD1DD6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DD8C736D-AA83-4FC0-B4BA-74662ED7D504}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{219FFA15-61CA-44D1-AF4B-8CD38A92F2BC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{28D8BFA3-AAA4-48AA-BC30-CCC9EADE0350}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0EAC8A8F-A700-44FF-9362-D40EBD890868}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{29D399F7-0C79-4EAA-A44B-382A5B410496}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{580905CE-49F1-44DC-B19D-FDCCDEEB8A04}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E79B73E0-6DC6-4635-A3AC-3FA1CC05FCA2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DDA1C8C0-CDC5-419B-BFC2-A24CC4BF1434}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9CEB4E3C-63AE-418E-808A-14FCAE9E1CA8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3948,7 +3948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0CF200B-DD74-47AC-A170-41371D2B6363}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A501A3-EB56-4EBB-9EAC-73FC780E932D}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -5194,17 +5194,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{95BEDEC5-94FE-4FF6-8F21-69F218B9173D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1B0E6F88-B87F-44CD-8C29-6B9650C3C3FE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B0DD7CB8-291F-42E2-9AFB-02402D97F3C0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0A7138D4-1461-4730-9013-BBEA5AC6CA2C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ADBA9F00-A492-4A33-8F3B-91CB120266AC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9254A910-5AE3-4DE1-903F-06A3A4C8755D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9731F744-9D14-458F-9D24-C280D334B4FE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F4BF5ABE-6EC6-43F6-A737-A1ADA66097C2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{324A05EB-ECF0-43DC-987A-09E84D38A127}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A09CCAF0-B593-411C-A21D-86523F300137}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{72542DE3-7CA7-4B45-B18F-920D1C3684F8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A7D07620-1C7E-4A9F-871A-EEB71C5F6658}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{67495FBC-B044-48F1-8FDC-E93B7DADA1E2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F2C8DAAE-2A59-4A9D-984F-8D18B2966E50}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{02B37DBF-24B8-4CF9-8180-4474D07E7B53}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AF4799A1-AC31-41CE-BF6C-F4703841C39B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3E6E618D-2A6C-4BDF-B3BB-5399C420B312}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{368A0659-6200-4ECA-8E03-BA93F7AB373E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5C948C11-B57E-462A-A059-69B8038A2D01}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9AA66D94-4418-4BFB-8D5D-7B44ED9A915B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8DD5ABC5-11E0-45AB-BEA4-C13BD439D51A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5B8239E1-33A2-49FC-8417-1169991E01E7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5217,7 +5217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88521DF6-3D64-4CF7-A8E3-C848543CE8C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F77CB2F-DB7E-473F-824D-EEFD9C9B8DA0}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -6455,17 +6455,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{369BE3E1-D667-40BB-80F3-F01489E6C082}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D1EFE7AB-E856-4EB2-8454-7E57E83519D9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B03AE250-540A-499A-979A-52B51570828D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{84141C23-485D-4192-8919-90A5F26CD14C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AC493C69-D382-4E38-B6B7-738D8CC93340}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5C08E7AD-5F35-4AE6-BF7E-398D85C3A0CD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C3BF7206-0EA7-4F85-B4BD-89DFAEDF6518}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DF4E1499-9FCD-4942-8617-76CF1B0F7746}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E3B16ACA-5F03-4EA0-A402-CDCB3EF8CFDA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8EF16BE2-1B42-4D3B-B363-812839F4AFC2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3332894A-67CE-46CE-9103-DDED80FE48F8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2E65B62F-F1AA-417C-9E79-DEF99E20204A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9E4D4EC2-B428-4EA0-9740-EFB855463019}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0F47D3F5-6A89-445F-9375-199053EE3219}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{28696EFD-16DE-4F52-ADEE-2A7743058825}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{735760E7-DEBC-4DFD-B1D6-08E8D40CB5A5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{65C458E6-C252-475A-AA55-B280AE4770E9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1CCEA37F-D425-449F-B3A1-3B4DB511B52A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A2399C6E-72FB-4BFE-A6CE-664ED64EE64D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{FA178825-4B42-45DE-A873-7DE9DF07A4E0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1B53EF99-4115-4219-9120-3015BB9D5985}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{22CD056B-F43D-4385-9B1C-541DBF4D49DB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6478,7 +6478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5626559F-A3A3-4C57-9E0C-DD9DF78FF9E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35AA328-0206-49C2-80FA-FEC7A5475735}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7761,17 +7761,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C8F6B8C5-B9FD-48FE-867A-5630B80C6E1B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7864347F-5610-4151-8B20-CB0DBF831E89}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{96AA3740-FD47-4A95-A789-70F9E4F907C4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3D750EC0-0098-4FAB-953D-C4ACD49F3CE4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C20CB0A0-0E8E-4552-898B-4E26802292F2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A9DE806F-0DD8-474B-950F-9203A80DEC1D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{77380408-7C86-4972-A580-B723613FA634}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D5EA530C-58A9-491B-92B2-CAB975B84D9B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BC196A35-65C7-4E17-8C0B-1EF486F07C9B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A9D9E9EC-64C6-478E-8DDA-92152249E8D7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A7AC5692-6153-4F1A-A242-158323252CE6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1DC07985-444F-4A65-B98A-48760631ECE9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{762A5D10-AF62-4A09-8060-B59115524C10}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{462B2243-7308-4958-BC93-7C127D1A4926}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5F40C6EA-7FE3-4835-BBC5-C82E493721E0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E467C0BF-3EF4-4FB0-AC83-520960B6B244}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0A708AEF-546E-4342-B195-336B1DF60018}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CCD9EE80-C433-4C87-8AE9-2AB359FFAB52}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1CFD1FF7-D7F2-497F-834D-CECAA6672DB2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{72838B93-F56D-46C1-85E5-C0A36BAAD4B1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6F6681CD-F705-417F-8080-5F7858DEE9F4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AC499966-1937-43C2-92AF-BD1F7F2D2765}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7784,7 +7784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB249689-C539-4871-B0F5-F8ABA829438B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6A56DD-CEDB-4CF8-9E2F-A868DBCB8C71}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9063,17 +9063,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A9FE8D30-22C8-4B3D-9F03-74B4E1FC23C6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{551460E1-762B-4343-8A82-D5B79AC8160D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DC18BB38-282D-4429-8A07-25CB6429412A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8183B226-9BAC-4F13-B2C7-AA724082C9F2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{71970CA5-1D3F-43F1-899A-1E5113D69FF5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EF31BB7A-76E8-41B8-8567-8F18DE57AF93}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EC62BE3F-37FA-42F5-8DA9-F6B655D982D3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3D794502-E1BB-4A74-B374-14A28E9387CA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5DE7AF74-B62A-4440-8144-15CA853D84EA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A06C3E93-451F-4F16-A1F4-E22CC5D5B9C5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DAA280F3-C617-4074-8663-25CA714AD476}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{74A322BF-0A28-4287-94DE-9C5188E4DEAC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1CFB3A24-A1FF-41BB-AD56-EF260CF25F14}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C9A806CA-054B-49EB-9A3E-B5EB53906BA0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E7F55865-C668-4A23-8099-C205518894E2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B22DD7CA-18A5-4B56-A28D-7563B2FFEED5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{018E09AD-B6A0-4A3A-BBAF-58843B858EC0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B0A250F0-0549-416F-9E05-FBDEA8B4CE93}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{37D6F963-0FC1-438B-9E81-E49FFACD2D0C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1543F7A9-F152-4AD8-A0BC-C0BE353BA4C1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6483D97F-2E60-4B5F-A6A7-0EB31A18C9B8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7D2737DA-8C14-4631-87CC-362F5DF0B4BD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9086,7 +9086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9530792F-4881-4161-BD64-C8DE9E66AB1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9042A1F8-E401-4D09-8ED3-1531E3088E85}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10365,17 +10365,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F9248F53-C9FC-4599-BF3F-F7A87DD17032}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4A72EED0-4426-412A-8E59-BA05E600946A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{619CE27D-2CAB-4404-8ACF-013F0C738796}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EB6281E5-1CCA-4041-AC13-9732FB860E69}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{48FC9EA2-C91B-49AB-AF43-ED0214132D18}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{24B9BCD3-CAF5-4808-BCD1-5D1F99EBF7E1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6EB5086C-65BC-4352-BCFC-33FE5F9D677F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E29D6A00-29DE-4F23-B4B9-540E6F159632}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E69A4EB4-5503-4262-B929-CF70AC53CD94}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BD9EC9F6-14F1-4416-8268-7D9D1015E1A6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{194A570A-0ACB-46D9-9A06-007471BA2748}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{67E30D9B-225D-4FBF-B03F-D1FDDD4911CD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DDAF1FC6-FD98-492B-803A-6EF65D09CCF7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D557CF53-A41D-48F2-A4D2-5C768D6AB2E5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{631C5393-40F0-41E1-8778-9EFF3756F295}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ACAA299F-1697-4D50-A641-A788D0A69F8C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F0AB9CF9-7968-4501-8DD5-005E0B4A3B59}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{120F7802-59D5-4532-A2A2-6DFF02F7B143}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{743A5D14-E5A3-49E0-BD9D-94DF97CFBC0F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DC602BE8-A5CC-4D01-82DF-A5952587DC79}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BC5B6974-31C4-4BA1-8AC4-21441FD7F727}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{224220F6-3DEE-4F3B-AFFB-27F9825DAA29}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10388,7 +10388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CE9889-2EB2-488C-A832-6D3867FA25F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A61B8B3-D0CC-4F18-AE5B-A74225568E11}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11667,17 +11667,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{61279AD1-E485-4939-AB8E-E43F65646279}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D39B1D2A-684C-4C23-97D8-1009414B1F5D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F88D3064-DBDB-4494-9E2D-43A3169AEF33}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6A2F9D51-C8F4-433C-B5FC-FDC0B7CDFA7F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D146F956-88AC-4E95-B769-FECC335E5372}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B2D96BD7-7563-4EEE-870D-CC8873457B62}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{77FE1510-0A2D-4125-8260-D09BA4F732FF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C548E10E-1F73-491F-9A01-9B86DC4120D6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A46A1532-C1E6-43D7-8D62-FBB2A5242E50}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{16ADE717-0366-4FDF-9B0A-E0636B42B57E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EDB5A985-98ED-4CD0-B5FA-90EF68D7FC25}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{53B07B49-94E2-41B5-B4F4-BE600A26BF4A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{934EB326-3949-4A34-BE4E-1F5E2232994E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DFA35767-521C-43EA-B4C2-E65C6785C584}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E8328230-E203-48BB-A2A4-8D32FFD37CEA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E9EF3C4F-3832-45EC-94C7-C2E3CF6CB097}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2160631A-7FEC-4CCC-8947-9052E0F649E4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A4E0B708-99B3-4760-81BA-7DD9DB55FA2B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1C95BCDB-238D-4E03-897D-084CC75C2799}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C0FB8883-F37F-42F6-AB0A-AC5A17716D32}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5CEF37A5-CBCE-4E40-9A9A-4E359B02E32A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B7B696B8-1E73-4CA4-A87B-517D964D686A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11690,7 +11690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C6ADD8-46D4-4D13-A26B-2ACDC261AF36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C979AF-83F0-43B5-9A18-18F7DCCAD4C1}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12969,17 +12969,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5070D2D2-087B-4592-8CED-BB796116AD19}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CB94D944-C06E-4765-86DD-B9CA825D20F1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9A313391-3ACE-4F7E-A0AC-66AA2CBF9D16}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{813DB272-A7A5-405E-82E6-ADC43D6C12FA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E519E1B0-9782-43C6-919B-D9D14A7F8AD9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B5DB309A-56A3-42F5-9A28-8389EC3170E2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F481C3A2-5FA8-44C2-AFB1-10C12E25BB57}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EB171ADF-E897-416A-A5F6-C57951757241}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{CCFFECFE-1576-4E0D-9C73-C14E97FB5997}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{05D73BD8-7E0F-4601-8863-AE2C85A257D3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{125481D4-FFCB-42DF-BC5B-E428439635F5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0B0F2FEF-3EAE-4D27-8161-A12C1410B0F4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{973937D2-CC02-4760-B26E-363643E04525}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{66F54F53-4971-4D69-B66F-CD27625FC18A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8086C85D-8EC4-4B70-A9EE-3985336D8F7C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7379091D-3AF0-461C-AE35-587C1E078C79}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6A3305E5-F355-43F8-A70F-9DE4914F309B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9EF7DA4F-C178-48C6-A352-960FEA8D8A55}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D690C2D6-1856-49ED-B750-74E48B25283F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0521358B-E634-4A7E-86D4-A58C42B4F337}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{EFA83631-4CF2-4021-8446-B7B51D31B2B8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C5C1C142-AF11-4CAB-A335-9DCC51D2689E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12992,7 +12992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323066CD-3097-414B-9CC4-F4DED5A29D59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EDA28E-8A3C-45B2-AF71-1433A58A7215}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14271,17 +14271,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ACA4DEB9-6036-4765-9348-2334584A5A69}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9C9C36F1-ECA1-40D7-A843-562E12A99DCE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1DA790D7-9EAA-4FD4-B6B3-F8AB444427D8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{261D8625-F6B9-4D75-A934-E374F8635F91}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A1783E06-6D3C-481B-97E4-5F02436D05F4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{68824070-0C93-48A4-A59E-209997649D13}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2C7C5B31-C9EA-4F69-AFE6-0C4776E119B4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E7D2C4C0-95D6-4773-8458-C8AF9D65634C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{23B8A3AF-AFB4-4F23-8492-4F8C610C54A0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8250EE83-C9A7-4AD8-9EBF-4D603566562A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2C107CD3-F261-4E32-8A88-E94526AFE91D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2EF8B68A-3E0D-4DCD-9538-9C3C32FEDF7C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5D45C174-1B51-4820-806D-DA8010C0BF64}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4E5B8860-B3E1-408F-BB9B-13D200B98761}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6C9FBA27-7327-4DA4-B251-84F279E2CAF9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{70CDA3F5-14B4-4038-8733-0A00356133B6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DEA8ECE5-11FF-4811-A012-43FC61CE13FF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CC17E3B7-E0BF-42CF-B5AD-00B8D1D9C269}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A9F1C49A-7CF5-4C11-A460-5C3953CF93DD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6B392A85-7E87-420F-9D02-CC9E41F330BA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{53C8159C-C9C1-4FE1-BD63-3E8CFB0CC2D1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2D714B9E-B7B4-4238-8926-128FB8219C84}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14294,7 +14294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9538380-AFA4-4557-BCAA-964CB3747E3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4797011C-3E13-499D-A83F-DFB057477A13}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -15574,17 +15574,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D433D509-A240-4C7F-8A04-8B6CC49004FB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{67C61E14-63A3-40A1-89BC-FC043EDCF123}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0CD6FEF6-4C87-46A6-AEBC-2DCF7A2D5A37}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DA02C72F-AA70-4632-9465-9F8EE57A8C60}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1CD3CA3F-C703-4697-93CA-E6B107C80DFC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{16883F24-F4F2-46AE-BEE3-ED4991D367C5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C5B35478-1D92-472A-B99B-8992CDB5C2E4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BBDDDFF1-17BA-49C0-97EF-115DE364E498}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B79F4F15-5C1D-4680-8954-C09E8042D1F5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{34AB4FB8-6B73-4658-BF93-3DD03FECA4AE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5CED3660-32BD-48D8-B7A9-9D61A057A40E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6E359492-76C8-443E-B5D5-5DC97184596F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B1B1FE6C-AE5A-4FEA-ABE4-14E5CAE79A0B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{77AFD776-ADF8-46EB-AFA8-67185E6B1BFC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{11A61C23-6662-43EB-8DCD-59D056B7E73A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{60A6630C-D877-4FCD-8440-ABF045DC1729}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{07225096-94FD-406B-868B-06721F552BF3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4F055924-043E-434E-8D2E-7E64ACFBFBDE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A1845767-6239-4D32-9F52-9124611B449C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{29A964F3-5D0D-4747-AC8A-58DABCFA3813}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3342BEE9-16A3-4685-9FBB-D88F8467DECE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0F21C019-AF45-4C7C-96A5-D43E7434CEC6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15597,7 +15597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{797C9AFD-36FD-46DF-8C84-7C92D4F3AF16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5709425-D6EC-4FC0-8B78-ED36D6FF78BC}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -16865,17 +16865,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{92BBAAF8-BD86-4BC1-8B8D-9B8EA5FBB7EE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B3819F7F-7C03-4D41-BB03-5344B594ED58}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8571AB40-5334-4F1A-A7FA-B1138161AB45}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{128872BB-95E0-45E7-A0D9-F2D4CA62483B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{587AE461-92B7-4E0C-91A4-BAE21A9219F4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CC748737-A130-4016-BC4E-32A4B23483A7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1EE418CE-0D49-4F69-95A1-45607281DBE7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{585ED63C-A717-44DB-B722-929597B8090A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E1755CE8-5F42-4AEB-9185-F9A6F98D8F0B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{AE55DC2E-2A28-4853-9022-2DAA755A9D4C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{76CB3804-60A5-4FAC-95BE-68E2A0A44DC5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{483370BC-C84C-4981-BC34-3B39313D810A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1ADADBEE-6D3E-4567-BCD9-157A98A857E7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{773BB78C-27E3-49F2-8D2F-0799EE6362DB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2634D024-EF1E-425D-BA61-DB9E2CFD77BC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F8395C24-AFCC-434F-A432-81FE22205C3E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EFC64B4B-70BB-442D-9995-6E03A9FA7BED}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0D5B22A4-5C08-48A2-8611-0BC2BF31FBC0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C7A3506F-5DF2-4CBA-A849-AA2B550FCCB4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DC2F3728-0121-4FD3-8DB7-534AB609D33C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9901365D-4A23-4671-BA31-99EA6B985B24}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3E327EF2-7C5B-403E-873D-ED97FE0924A9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
